--- a/Takarmány kalkulátor programhoz.xlsx
+++ b/Takarmány kalkulátor programhoz.xlsx
@@ -5871,8 +5871,8 @@
   <dimension ref="A1:BB366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C118" activeCellId="1" sqref="A100:XFD201 A100:XFD201"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A1:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5903,7 +5903,7 @@
     <col min="41" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" s="14" customFormat="1" ht="30.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="556" t="s">
         <v>292</v>
       </c>
@@ -5959,7 +5959,7 @@
       <c r="AE1" s="537"/>
       <c r="AF1" s="538"/>
     </row>
-    <row r="2" spans="1:39" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" s="14" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="576" t="s">
         <v>112</v>
       </c>
@@ -6030,7 +6030,7 @@
       </c>
       <c r="AG2" s="243"/>
     </row>
-    <row r="3" spans="1:39" s="293" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" s="293" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="499" t="str">
         <f>IF($T$3&gt;0,VLOOKUP($T$3,#REF!,10),IF($T$3=0,"",""))</f>
         <v/>
@@ -6164,7 +6164,7 @@
       <c r="AG4" s="358"/>
       <c r="AH4" s="359"/>
     </row>
-    <row r="5" spans="1:39" s="300" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" s="300" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="564" t="str">
         <f>IF($T$5&gt;0,VLOOKUP($T$5,#REF!,12),IF($T$5=0,"",""))</f>
         <v/>
@@ -6236,7 +6236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" s="54" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="172"/>
       <c r="B6" s="172"/>
       <c r="C6" s="172"/>
@@ -6269,7 +6269,7 @@
       <c r="AD6" s="172"/>
       <c r="AE6" s="172"/>
     </row>
-    <row r="7" spans="1:39" s="55" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" s="55" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="559" t="s">
         <v>290</v>
       </c>
@@ -6305,7 +6305,7 @@
       <c r="AF7" s="60"/>
       <c r="AG7" s="60"/>
     </row>
-    <row r="8" spans="1:39" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" s="55" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="547" t="s">
         <v>310</v>
       </c>
@@ -6361,7 +6361,7 @@
       <c r="AF8" s="60"/>
       <c r="AG8" s="60"/>
     </row>
-    <row r="9" spans="1:39" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" s="55" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="549"/>
       <c r="C9" s="550"/>
       <c r="D9" s="550"/>
@@ -6395,7 +6395,7 @@
       <c r="AF9" s="60"/>
       <c r="AG9" s="60"/>
     </row>
-    <row r="10" spans="1:39" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" s="55" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="551"/>
       <c r="C10" s="552"/>
       <c r="D10" s="552"/>
@@ -6429,7 +6429,7 @@
       <c r="AF10" s="60"/>
       <c r="AG10" s="60"/>
     </row>
-    <row r="11" spans="1:39" s="55" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:39" s="55" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="502" t="s">
         <v>120</v>
       </c>
@@ -6473,7 +6473,7 @@
       <c r="AF11" s="60"/>
       <c r="AG11" s="60"/>
     </row>
-    <row r="12" spans="1:39" s="55" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:39" s="55" customFormat="1" ht="30.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="505" t="s">
         <v>324</v>
       </c>
@@ -6527,7 +6527,7 @@
       <c r="AF12" s="60"/>
       <c r="AG12" s="60"/>
     </row>
-    <row r="13" spans="1:39" s="180" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" s="180" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="M13" s="181"/>
       <c r="N13" s="182">
         <v>1</v>
@@ -6565,7 +6565,7 @@
       <c r="AD13" s="383"/>
       <c r="AE13" s="383"/>
     </row>
-    <row r="14" spans="1:39" s="180" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" s="180" customFormat="1" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M14" s="181"/>
       <c r="N14" s="182">
         <v>2</v>
@@ -6603,7 +6603,7 @@
       <c r="AD14" s="383"/>
       <c r="AE14" s="383"/>
     </row>
-    <row r="15" spans="1:39" s="180" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" s="180" customFormat="1" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M15" s="181"/>
       <c r="N15" s="182">
         <v>3</v>
@@ -6640,7 +6640,7 @@
       <c r="AH15" s="197"/>
       <c r="AM15" s="196"/>
     </row>
-    <row r="16" spans="1:39" s="180" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" s="180" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="M16" s="181"/>
       <c r="N16" s="182">
         <v>4</v>
@@ -6671,7 +6671,7 @@
       <c r="AH16" s="197"/>
       <c r="AM16" s="196"/>
     </row>
-    <row r="17" spans="1:39" s="180" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" s="180" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="M17" s="181"/>
       <c r="N17" s="182">
         <v>5</v>
@@ -6702,7 +6702,7 @@
       <c r="AH17" s="197"/>
       <c r="AM17" s="196"/>
     </row>
-    <row r="18" spans="1:39" s="180" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" s="180" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="M18" s="181"/>
       <c r="N18" s="182">
         <v>6</v>
@@ -6733,7 +6733,7 @@
       <c r="AH18" s="197"/>
       <c r="AM18" s="196"/>
     </row>
-    <row r="19" spans="1:39" s="180" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" s="180" customFormat="1" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M19" s="181"/>
       <c r="N19" s="182">
         <v>7</v>
@@ -6764,7 +6764,7 @@
       <c r="AH19" s="197"/>
       <c r="AM19" s="196"/>
     </row>
-    <row r="20" spans="1:39" s="180" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" s="180" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="M20" s="181"/>
       <c r="N20" s="182">
         <v>8</v>
@@ -6789,7 +6789,7 @@
       <c r="AH20" s="197"/>
       <c r="AM20" s="196"/>
     </row>
-    <row r="21" spans="1:39" s="180" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" s="180" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="M21" s="181"/>
       <c r="N21" s="182">
         <v>9</v>
@@ -6816,7 +6816,7 @@
       <c r="AD21" s="196"/>
       <c r="AE21" s="196"/>
     </row>
-    <row r="22" spans="1:39" s="180" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" s="180" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="M22" s="181"/>
       <c r="N22" s="182">
         <v>10</v>
@@ -6843,7 +6843,7 @@
       <c r="AD22" s="196"/>
       <c r="AE22" s="196"/>
     </row>
-    <row r="23" spans="1:39" s="180" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" s="180" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="M23" s="181"/>
       <c r="N23" s="182">
         <v>11</v>
@@ -6870,7 +6870,7 @@
       <c r="AD23" s="196"/>
       <c r="AE23" s="196"/>
     </row>
-    <row r="24" spans="1:39" s="180" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" s="180" customFormat="1" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M24" s="181"/>
       <c r="N24" s="182">
         <v>12</v>
@@ -6897,7 +6897,7 @@
       <c r="AD24" s="196"/>
       <c r="AE24" s="196"/>
     </row>
-    <row r="25" spans="1:39" s="180" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" s="180" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="M25" s="181"/>
       <c r="N25" s="182">
         <v>13</v>
@@ -6920,7 +6920,7 @@
       <c r="AD25" s="196"/>
       <c r="AE25" s="196"/>
     </row>
-    <row r="26" spans="1:39" s="180" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" s="180" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="M26" s="181"/>
       <c r="N26" s="182">
         <v>14</v>
@@ -6943,7 +6943,7 @@
       <c r="AD26" s="196"/>
       <c r="AE26" s="196"/>
     </row>
-    <row r="27" spans="1:39" s="180" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" s="180" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="M27" s="181"/>
       <c r="N27" s="182">
         <v>15</v>
@@ -6966,7 +6966,7 @@
       <c r="AD27" s="196"/>
       <c r="AE27" s="196"/>
     </row>
-    <row r="28" spans="1:39" s="180" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" s="180" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M28" s="181"/>
       <c r="N28" s="204">
         <v>16</v>
@@ -6989,7 +6989,7 @@
       <c r="AD28" s="196"/>
       <c r="AE28" s="196"/>
     </row>
-    <row r="29" spans="1:39" s="180" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" s="180" customFormat="1" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M29" s="181"/>
       <c r="N29" s="391">
         <v>17</v>
@@ -7025,7 +7025,7 @@
       <c r="AD29" s="196"/>
       <c r="AE29" s="196"/>
     </row>
-    <row r="30" spans="1:39" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:39" s="55" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M30" s="126"/>
       <c r="N30" s="56"/>
       <c r="O30" s="56"/>
